--- a/3.results/model_selection/sterne_caugek_HR_4_add_spatial_effects.xlsx
+++ b/3.results/model_selection/sterne_caugek_HR_4_add_spatial_effects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">...1</t>
   </si>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_log_dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_bathymetry</t>
+    <t xml:space="preserve">beta_mean_CHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_mean_SSH</t>
   </si>
   <si>
     <t xml:space="preserve">beta_mean_winter_SST</t>
@@ -83,16 +83,10 @@
     <t xml:space="preserve">beta_mean_summer_SST</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_bathymetry</t>
+    <t xml:space="preserve">sd_beta_mean_CHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_mean_SSH</t>
   </si>
   <si>
     <t xml:space="preserve">sd_beta_mean_winter_SST</t>
@@ -102,12 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd_beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SSH</t>
   </si>
   <si>
     <t xml:space="preserve">without spatial</t>
@@ -565,40 +553,28 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.006</v>
+        <v>1.004</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>907.1</v>
+        <v>1019.5</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0.72</v>
       </c>
       <c r="E2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0.49</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.5</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0.95</v>
@@ -613,81 +589,69 @@
         <v>120</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>119</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-0.22</v>
+        <v>1.48</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>0.51</v>
+        <v>-0.31</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>-1.01</v>
+        <v>-0.86</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>0.37</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>-0.66</v>
+        <v>-0.49</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>1.45</v>
+        <v>0.41</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>-0.21</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.165</v>
+        <v>1.117</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>34.9</v>
+        <v>66.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.5</v>
@@ -696,7 +660,7 @@
         <v>0.61</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0.96</v>
@@ -711,19 +675,19 @@
         <v>112</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>1274</v>
@@ -732,63 +696,51 @@
         <v>2</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.42</v>
+        <v>2.47</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>0.53</v>
+        <v>-0.05</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>-1.86</v>
+        <v>-1.57</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>-1.1</v>
+        <v>-1.02</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2.46</v>
+        <v>0.94</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>0.11</v>
+        <v>0.71</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>1.02</v>
+        <v>0.73</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.226</v>
+        <v>1.297</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>42.5</v>
+        <v>34.8</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.61</v>
@@ -803,84 +755,72 @@
         <v>0.5</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.38</v>
+        <v>2.2</v>
       </c>
       <c r="T4" s="1" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y4" s="1" t="n">
         <v>0.64</v>
       </c>
-      <c r="U4" s="1" t="n">
-        <v>-1.75</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z4" s="1" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>0.94</v>
+        <v>0.66</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>14.185</v>
+        <v>35.511</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.72</v>
@@ -889,7 +829,7 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0.49</v>
@@ -898,76 +838,64 @@
         <v>0.95</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>530</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.19</v>
+        <v>1.57</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.71</v>
+        <v>-0.26</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>-1.46</v>
+        <v>-0.92</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.84</v>
+        <v>-0.58</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>1.86</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>0.71</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +945,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;522</formula>
+      <formula>J2&lt;520</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -1030,7 +958,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;117</formula>
+      <formula>K2&lt;115</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -1043,7 +971,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;362</formula>
+      <formula>L2&lt;363</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -1056,7 +984,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;991</formula>
+      <formula>M2&lt;992</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -1069,7 +997,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;545</formula>
+      <formula>N2&lt;541</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -1082,7 +1010,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;124</formula>
+      <formula>O2&lt;122</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -1095,7 +1023,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;400</formula>
+      <formula>P2&lt;394</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -1108,7 +1036,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;1059</formula>
+      <formula>Q2&lt;1051</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
